--- a/artfynd/A 61212-2025 artfynd.xlsx
+++ b/artfynd/A 61212-2025 artfynd.xlsx
@@ -1402,7 +1402,7 @@
         <v>121497089</v>
       </c>
       <c r="B7" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
